--- a/Hardware/CNC_controller/Project Outputs for CNC_controller/CNC_controller.xlsx
+++ b/Hardware/CNC_controller/Project Outputs for CNC_controller/CNC_controller.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Manuel Mejia V\Desktop\Proyectos\CNC_Multi\Hardware\CNC_controller\Project Outputs for CNC_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FD0CA1-D009-4C8F-A309-478F0A2B36C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A912A924-800C-4424-BE99-1423B4E02BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{717514A3-102B-4FE4-8A84-6F42E79CDF46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2DAF7ECE-3E88-4375-B764-70EAC61CF6A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="CNC_controller (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="CNC_controller" sheetId="1" r:id="rId2"/>
+    <sheet name="CNC_controller" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">CNC_controller!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'CNC_controller (2)'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">CNC_controller!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="251">
   <si>
     <t>DesignItemId</t>
   </si>
@@ -212,7 +210,7 @@
     <t>CARD1</t>
   </si>
   <si>
-    <t>C2896790</t>
+    <t>C2889258</t>
   </si>
   <si>
     <t>Diode 1N4001W</t>
@@ -770,7 +768,7 @@
     <t>C7519</t>
   </si>
   <si>
-    <t>ROHM RPI-441C1E</t>
+    <t>RPI-441C1E</t>
   </si>
   <si>
     <t>850nm 1.4V DIP-4 Photointerrupters - Slot Type - Transistor Output RoHS</t>
@@ -779,18 +777,35 @@
     <t>ROHM</t>
   </si>
   <si>
-    <t>RPI-441C1E</t>
-  </si>
-  <si>
     <t>C919442</t>
+  </si>
+  <si>
+    <t>XR0630-4R7M</t>
+  </si>
+  <si>
+    <t>4.7uH Molded Inductor 9A SMD,7x6.6mm Fixed Inductors RoHS</t>
+  </si>
+  <si>
+    <t>XR</t>
+  </si>
+  <si>
+    <t>C5307631</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -839,12 +854,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,11 +1175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A2C2B8-1017-4D7D-A745-95E83131CBE5}">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200BB73E-A2B2-4B86-8976-12CB318FCA44}">
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K45" sqref="A43:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,9 +1187,9 @@
     <col min="1" max="1" width="22.54296875" customWidth="1"/>
     <col min="2" max="2" width="6.81640625" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="99.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="8.1796875" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
@@ -1248,1058 +1265,420 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.20200000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8.8730000000000003E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.44363999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.3099999999999997E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.41556999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5.9500000000000004E-3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.59477000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.57421999999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B947C14-AFF0-4FC7-9341-4D481C03BB8F}">
-  <dimension ref="A1:K43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="99.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.0359999999999999E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.20716000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="1">
-        <v>8.1799999999999998E-3</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.40894999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5.9500000000000004E-3</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.59501000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5.64E-3</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.56445999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>88</v>
       </c>
@@ -2328,10 +1707,10 @@
         <v>93</v>
       </c>
       <c r="J16" s="1">
-        <v>4.1149999999999999E-2</v>
+        <v>4.0329999999999998E-2</v>
       </c>
       <c r="K16" s="1">
-        <v>0.41149999999999998</v>
+        <v>0.40334999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -2363,10 +1742,10 @@
         <v>99</v>
       </c>
       <c r="J17" s="1">
-        <v>8.5330000000000003E-2</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>0.42665999999999998</v>
+        <v>0.42648999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -2428,8 +1807,12 @@
       <c r="I19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1">
+        <v>8.0689999999999998E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.40343000000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -2460,10 +1843,10 @@
         <v>116</v>
       </c>
       <c r="J20" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7980000000000002E-2</v>
       </c>
       <c r="K20" s="1">
-        <v>0.47999000000000003</v>
+        <v>0.4798</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2495,10 +1878,10 @@
         <v>122</v>
       </c>
       <c r="J21" s="1">
-        <v>8.1129999999999994E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="K21" s="1">
-        <v>0.81130000000000002</v>
+        <v>0.79401999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -2560,8 +1943,12 @@
       <c r="I23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1">
+        <v>4.2029999999999998E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.84065000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -2623,10 +2010,10 @@
         <v>146</v>
       </c>
       <c r="J25" s="1">
-        <v>1.9189999999999999E-2</v>
+        <v>1.9179999999999999E-2</v>
       </c>
       <c r="K25" s="1">
-        <v>0.38374000000000003</v>
+        <v>0.38357999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2846,7 +2233,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>182</v>
       </c>
@@ -2877,7 +2264,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>187</v>
       </c>
@@ -2908,7 +2295,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>192</v>
       </c>
@@ -2939,7 +2326,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>197</v>
       </c>
@@ -2970,7 +2357,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
@@ -3001,7 +2388,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>207</v>
       </c>
@@ -3032,7 +2419,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>213</v>
       </c>
@@ -3063,7 +2450,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>219</v>
       </c>
@@ -3093,8 +2480,9 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>225</v>
       </c>
@@ -3123,13 +2511,13 @@
         <v>230</v>
       </c>
       <c r="J41" s="1">
-        <v>0.30224000000000001</v>
+        <v>0.30210999999999999</v>
       </c>
       <c r="K41" s="1">
         <v>1.51</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>231</v>
       </c>
@@ -3158,13 +2546,13 @@
         <v>236</v>
       </c>
       <c r="J42" s="1">
-        <v>0.19746</v>
+        <v>0.19738</v>
       </c>
       <c r="K42" s="1">
-        <v>0.19746</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.19738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>237</v>
       </c>
@@ -3192,8 +2580,70 @@
       <c r="I43" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="J43" s="1">
+        <v>0.10673000000000001</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.53364999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" s="5">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
